--- a/Cancelacion_Churn/dataset_clientes_churn.xlsx
+++ b/Cancelacion_Churn/dataset_clientes_churn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonf\OneDrive\Desktop\semestre 7\Electiva 2\Taller 1\Deserción_Academica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonf\OneDrive\Desktop\semestre 7\Electiva 2\Taller 1\Cancelacion_Churn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CD545E-55BB-43CA-9281-410581080DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635DAD7-8FDB-4A18-BD89-75A98FD7F0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>tiempo_promedio_entre_compras_dias</t>
   </si>
   <si>
-    <t>cancelara</t>
+    <t>cancelo</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
